--- a/KẾ TOÁN - THÁI HẰNG/NHẬP HÀNG/Phiếu xuất kho bán hàng THL (không giá).xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NHẬP HÀNG/Phiếu xuất kho bán hàng THL (không giá).xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ TOÁN - THÁI HẰNG\HangWorkspace\KẾ TOÁN - THÁI HẰNG\NHẬP HÀNG\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="15315" windowHeight="7965" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="15315" windowHeight="7965" tabRatio="838" firstSheet="1" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="NH đợt1" sheetId="1" r:id="rId1"/>
@@ -18,13 +23,14 @@
     <sheet name="NH đợt9" sheetId="9" r:id="rId9"/>
     <sheet name="NH đợt10" sheetId="10" r:id="rId10"/>
     <sheet name="NH đợt 11" sheetId="11" r:id="rId11"/>
+    <sheet name="NH đợt 12" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="89">
   <si>
     <t>PHIẾU XUẤT KHO BÁN HÀNG</t>
   </si>
@@ -334,14 +340,20 @@
   <si>
     <t>Ngày 24 tháng 03 năm 2020</t>
   </si>
+  <si>
+    <t>Ngày 04 tháng 05 năm 2020</t>
+  </si>
+  <si>
+    <t>Nano+ Milk Infant số 1 400g</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -527,9 +539,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -549,10 +561,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -564,10 +576,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -579,10 +591,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -600,13 +612,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -619,10 +631,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -634,10 +646,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -649,10 +661,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -670,21 +682,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -697,77 +712,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -778,7 +728,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="4D4D4D"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -816,7 +766,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -851,7 +801,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1090,41 +1040,41 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1205,15 +1155,15 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -1491,55 +1441,55 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E35" s="55" t="s">
+      <c r="E35" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="56" t="s">
+      <c r="A36" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="56"/>
-      <c r="C36" s="56" t="s">
+      <c r="B36" s="55"/>
+      <c r="C36" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56" t="s">
+      <c r="D36" s="55"/>
+      <c r="E36" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="55" t="s">
+      <c r="A37" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="55"/>
-      <c r="C37" s="55" t="s">
+      <c r="B37" s="54"/>
+      <c r="C37" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55" t="s">
+      <c r="D37" s="54"/>
+      <c r="E37" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="A37:B37"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="E35:G35"/>
     <mergeCell ref="E36:G36"/>
     <mergeCell ref="A16:G16"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="A37:B37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="85" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1550,7 +1500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
@@ -1578,41 +1528,41 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1693,15 +1643,15 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -1811,41 +1761,41 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E26" s="55" t="s">
+      <c r="E26" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
     </row>
     <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="56" t="s">
+      <c r="A27" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56" t="s">
+      <c r="B27" s="55"/>
+      <c r="C27" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56" t="s">
+      <c r="D27" s="55"/>
+      <c r="E27" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55" t="s">
+      <c r="B28" s="54"/>
+      <c r="C28" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55" t="s">
+      <c r="D28" s="54"/>
+      <c r="E28" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1870,8 +1820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1898,41 +1848,41 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2013,15 +1963,15 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -2204,41 +2154,41 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E30" s="55" t="s">
+      <c r="E30" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
     </row>
     <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="56" t="s">
+      <c r="A31" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56" t="s">
+      <c r="B31" s="55"/>
+      <c r="C31" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56" t="s">
+      <c r="D31" s="55"/>
+      <c r="E31" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="55" t="s">
+      <c r="A32" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="55"/>
-      <c r="C32" s="55" t="s">
+      <c r="B32" s="54"/>
+      <c r="C32" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55" t="s">
+      <c r="D32" s="54"/>
+      <c r="E32" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2253,6 +2203,417 @@
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:G31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="11.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="10.42578125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="53"/>
+      <c r="B9" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="53" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>1</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="6">
+        <v>10</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>2</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="11">
+        <v>20</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>3</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="11">
+        <v>10</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>4</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="11">
+        <v>10</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>5</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="11">
+        <v>4</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>6</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="11">
+        <v>20</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="15"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="5">
+        <f>SUM(E19:E24)</f>
+        <v>74</v>
+      </c>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="27"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="28"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="28"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="27"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="28"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E31" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+    </row>
+    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:G32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2289,41 +2650,41 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2404,15 +2765,15 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -2576,41 +2937,41 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E29" s="55" t="s">
+      <c r="E29" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
     </row>
     <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56" t="s">
+      <c r="B30" s="55"/>
+      <c r="C30" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56" t="s">
+      <c r="D30" s="55"/>
+      <c r="E30" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="55" t="s">
+      <c r="A31" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55" t="s">
+      <c r="B31" s="54"/>
+      <c r="C31" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55" t="s">
+      <c r="D31" s="54"/>
+      <c r="E31" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2636,7 +2997,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19:G31"/>
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2663,41 +3024,41 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2778,15 +3139,15 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -3045,41 +3406,41 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E34" s="55" t="s">
+      <c r="E34" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="56" t="s">
+      <c r="A35" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="56"/>
-      <c r="C35" s="56" t="s">
+      <c r="B35" s="55"/>
+      <c r="C35" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56" t="s">
+      <c r="D35" s="55"/>
+      <c r="E35" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="55" t="s">
+      <c r="A36" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="55"/>
-      <c r="C36" s="55" t="s">
+      <c r="B36" s="54"/>
+      <c r="C36" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55" t="s">
+      <c r="D36" s="54"/>
+      <c r="E36" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3132,41 +3493,41 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -3247,15 +3608,15 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -3362,41 +3723,41 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E26" s="55" t="s">
+      <c r="E26" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="56" t="s">
+      <c r="A27" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56" t="s">
+      <c r="B27" s="55"/>
+      <c r="C27" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56" t="s">
+      <c r="D27" s="55"/>
+      <c r="E27" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55" t="s">
+      <c r="B28" s="54"/>
+      <c r="C28" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55" t="s">
+      <c r="D28" s="54"/>
+      <c r="E28" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3452,41 +3813,41 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -3567,15 +3928,15 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -3815,41 +4176,41 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E33" s="55" t="s">
+      <c r="E33" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
     </row>
     <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="56" t="s">
+      <c r="A34" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56" t="s">
+      <c r="B34" s="55"/>
+      <c r="C34" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56" t="s">
+      <c r="D34" s="55"/>
+      <c r="E34" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="55" t="s">
+      <c r="A35" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55" t="s">
+      <c r="B35" s="54"/>
+      <c r="C35" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55" t="s">
+      <c r="D35" s="54"/>
+      <c r="E35" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3902,41 +4263,41 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -4017,15 +4378,15 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -4132,41 +4493,41 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E26" s="55" t="s">
+      <c r="E26" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="56" t="s">
+      <c r="A27" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56" t="s">
+      <c r="B27" s="55"/>
+      <c r="C27" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56" t="s">
+      <c r="D27" s="55"/>
+      <c r="E27" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55" t="s">
+      <c r="B28" s="54"/>
+      <c r="C28" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55" t="s">
+      <c r="D28" s="54"/>
+      <c r="E28" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4219,41 +4580,41 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -4334,15 +4695,15 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -4620,41 +4981,41 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E35" s="55" t="s">
+      <c r="E35" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="56" t="s">
+      <c r="A36" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="56"/>
-      <c r="C36" s="56" t="s">
+      <c r="B36" s="55"/>
+      <c r="C36" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56" t="s">
+      <c r="D36" s="55"/>
+      <c r="E36" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="55" t="s">
+      <c r="A37" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="55"/>
-      <c r="C37" s="55" t="s">
+      <c r="B37" s="54"/>
+      <c r="C37" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55" t="s">
+      <c r="D37" s="54"/>
+      <c r="E37" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4707,41 +5068,41 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -4822,15 +5183,15 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -5032,41 +5393,41 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E31" s="55" t="s">
+      <c r="E31" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
     </row>
     <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="56" t="s">
+      <c r="A32" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56" t="s">
+      <c r="B32" s="55"/>
+      <c r="C32" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56" t="s">
+      <c r="D32" s="55"/>
+      <c r="E32" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="55" t="s">
+      <c r="A33" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55" t="s">
+      <c r="B33" s="54"/>
+      <c r="C33" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55" t="s">
+      <c r="D33" s="54"/>
+      <c r="E33" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5091,7 +5452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
@@ -5119,41 +5480,41 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -5234,15 +5595,15 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -5425,41 +5786,41 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E30" s="55" t="s">
+      <c r="E30" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
     </row>
     <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="56" t="s">
+      <c r="A31" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56" t="s">
+      <c r="B31" s="55"/>
+      <c r="C31" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56" t="s">
+      <c r="D31" s="55"/>
+      <c r="E31" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="55" t="s">
+      <c r="A32" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="55"/>
-      <c r="C32" s="55" t="s">
+      <c r="B32" s="54"/>
+      <c r="C32" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55" t="s">
+      <c r="D32" s="54"/>
+      <c r="E32" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="11">
